--- a/results_expirements/hard_expirements/hard-train-on-anom-or-norm/train-on-anom-or-norm.xlsx
+++ b/results_expirements/hard_expirements/hard-train-on-anom-or-norm/train-on-anom-or-norm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gosha\Desktop\Projects\Improvements-to-ML-algorithms\results_expirements\train-on-anom-or-norm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gosha\Desktop\Projects\Improvements-to-ML-algorithms\results_expirements\hard_expirements\hard-train-on-anom-or-norm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4554193E-8A9A-4BEA-8BBB-AA57CCD2343B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7739F1CB-8D05-4846-B369-16E3943C0E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="1392" windowWidth="17064" windowHeight="9468" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3624" yWindow="1392" windowWidth="17064" windowHeight="9468" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sberbank-russian-housing" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="26">
   <si>
     <t>train on all data</t>
   </si>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704858E-2403-48BC-A922-7396787C5428}">
   <dimension ref="B2:W24"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21:W24"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R2"/>
+    <sheetView zoomScale="41" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2283,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC39001-6431-4D9F-950C-4AC5347B4FE6}">
   <dimension ref="B2:W24"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21:W24"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3181,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F15B07-AA0C-4D56-9617-26A2F01699A6}">
   <dimension ref="B2:W24"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3869,15 +3869,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62AC769-B315-4F8D-BF69-1652D0294573}">
-  <dimension ref="B2:R24"/>
+  <dimension ref="B2:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:23">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:23">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -3907,8 +3907,38 @@
       <c r="G6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:18">
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -3927,8 +3957,44 @@
       <c r="G7">
         <v>0.62629999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>15254</v>
+      </c>
+      <c r="L7">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="M7">
+        <v>2180.8085999999898</v>
+      </c>
+      <c r="N7">
+        <v>1442.6342</v>
+      </c>
+      <c r="O7">
+        <v>0.72409999999999897</v>
+      </c>
+      <c r="R7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>137283.4</v>
+      </c>
+      <c r="T7">
+        <v>0.59729999999999905</v>
+      </c>
+      <c r="U7">
+        <v>1663.9872</v>
+      </c>
+      <c r="V7">
+        <v>1102.0431000000001</v>
+      </c>
+      <c r="W7">
+        <v>0.61559999999999904</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -3947,8 +4013,44 @@
       <c r="G8">
         <v>0.57309999999999905</v>
       </c>
-    </row>
-    <row r="9" spans="2:18">
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>16948.599999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="M8">
+        <v>1992.8536999999901</v>
+      </c>
+      <c r="N8">
+        <v>1321.1551999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="R8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>16948.599999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.61039999999999905</v>
+      </c>
+      <c r="U8">
+        <v>1915.8346999999901</v>
+      </c>
+      <c r="V8">
+        <v>1193.37409999999</v>
+      </c>
+      <c r="W8">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -3967,18 +4069,54 @@
       <c r="G9">
         <v>0.55130000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>18832</v>
+      </c>
+      <c r="L9">
+        <v>0.746</v>
+      </c>
+      <c r="M9">
+        <v>2051.3941</v>
+      </c>
+      <c r="N9">
+        <v>1339.1046999999901</v>
+      </c>
+      <c r="O9">
+        <v>0.50719999999999898</v>
+      </c>
+      <c r="R9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9">
+        <v>18832</v>
+      </c>
+      <c r="T9">
+        <v>0.6</v>
+      </c>
+      <c r="U9">
+        <v>1961.1877999999999</v>
+      </c>
+      <c r="V9">
+        <v>1202.4666</v>
+      </c>
+      <c r="W9">
+        <v>0.54959999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
       <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:23">
       <c r="C12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:23">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -3997,8 +4135,38 @@
       <c r="G16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s">
+        <v>5</v>
+      </c>
+      <c r="U16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -4017,8 +4185,44 @@
       <c r="G17">
         <v>0.62619999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>3972</v>
+      </c>
+      <c r="L17">
+        <v>0.37529999999999902</v>
+      </c>
+      <c r="M17">
+        <v>2509.7594999999901</v>
+      </c>
+      <c r="N17">
+        <v>1629.9721999999899</v>
+      </c>
+      <c r="O17">
+        <v>0.82179999999999997</v>
+      </c>
+      <c r="R17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17">
+        <v>148565.4</v>
+      </c>
+      <c r="T17">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="U17">
+        <v>1703.20929999999</v>
+      </c>
+      <c r="V17">
+        <v>1123.7121999999999</v>
+      </c>
+      <c r="W17">
+        <v>0.58809999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -4037,8 +4241,44 @@
       <c r="G18">
         <v>0.57469999999999899</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>16948.599999999999</v>
+      </c>
+      <c r="L18">
+        <v>1.2692000000000001</v>
+      </c>
+      <c r="M18">
+        <v>2398.6913</v>
+      </c>
+      <c r="N18">
+        <v>1810.5401999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.31409999999999999</v>
+      </c>
+      <c r="R18" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>16948.599999999999</v>
+      </c>
+      <c r="T18">
+        <v>0.61139999999999906</v>
+      </c>
+      <c r="U18">
+        <v>1901.4694</v>
+      </c>
+      <c r="V18">
+        <v>1192.1461999999999</v>
+      </c>
+      <c r="W18">
+        <v>0.57029999999999903</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -4057,8 +4297,44 @@
       <c r="G19">
         <v>0.55079999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>18832</v>
+      </c>
+      <c r="L19">
+        <v>1.246</v>
+      </c>
+      <c r="M19">
+        <v>2437.7381</v>
+      </c>
+      <c r="N19">
+        <v>1828.9069</v>
+      </c>
+      <c r="O19">
+        <v>0.3034</v>
+      </c>
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19">
+        <v>18832</v>
+      </c>
+      <c r="T19">
+        <v>0.60009999999999997</v>
+      </c>
+      <c r="U19">
+        <v>1943.6478</v>
+      </c>
+      <c r="V19">
+        <v>1200.4188999999999</v>
+      </c>
+      <c r="W19">
+        <v>0.55759999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -4077,8 +4353,38 @@
       <c r="G21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -4097,8 +4403,44 @@
       <c r="G22">
         <v>0.62660000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>10702.6</v>
+      </c>
+      <c r="L22">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="M22">
+        <v>1942.82589999999</v>
+      </c>
+      <c r="N22">
+        <v>1198.6185</v>
+      </c>
+      <c r="O22">
+        <v>0.77709999999999901</v>
+      </c>
+      <c r="R22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22">
+        <v>141834.79999999999</v>
+      </c>
+      <c r="T22">
+        <v>0.6018</v>
+      </c>
+      <c r="U22">
+        <v>1720.2116999999901</v>
+      </c>
+      <c r="V22">
+        <v>1136.14939999999</v>
+      </c>
+      <c r="W22">
+        <v>0.61760000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -4117,8 +4459,44 @@
       <c r="G23">
         <v>0.57230000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>16948.599999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.70909999999999995</v>
+      </c>
+      <c r="M23">
+        <v>2006.0603000000001</v>
+      </c>
+      <c r="N23">
+        <v>1296.9634000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="R23" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>16948.599999999999</v>
+      </c>
+      <c r="T23">
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="U23">
+        <v>1895.0077999999901</v>
+      </c>
+      <c r="V23">
+        <v>1190.7772</v>
+      </c>
+      <c r="W23">
+        <v>0.57329999999999903</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
       <c r="B24" t="s">
         <v>11</v>
       </c>
@@ -4136,6 +4514,42 @@
       </c>
       <c r="G24">
         <v>0.55130000000000001</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>18832</v>
+      </c>
+      <c r="L24">
+        <v>0.69709999999999905</v>
+      </c>
+      <c r="M24">
+        <v>2038.4128000000001</v>
+      </c>
+      <c r="N24">
+        <v>1306.0547999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="R24" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>18832</v>
+      </c>
+      <c r="T24">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="U24">
+        <v>1931.5751</v>
+      </c>
+      <c r="V24">
+        <v>1199.5698</v>
+      </c>
+      <c r="W24">
+        <v>0.56309999999999905</v>
       </c>
     </row>
   </sheetData>
